--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.71953218945127</v>
+        <v>10.105724</v>
       </c>
       <c r="H2">
-        <v>8.71953218945127</v>
+        <v>30.317172</v>
       </c>
       <c r="I2">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="J2">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>20.3536144419688</v>
+        <v>1.202916333333333</v>
       </c>
       <c r="N2">
-        <v>20.3536144419688</v>
+        <v>3.608749</v>
       </c>
       <c r="O2">
-        <v>0.3814525015076876</v>
+        <v>0.02173550655091635</v>
       </c>
       <c r="P2">
-        <v>0.3814525015076876</v>
+        <v>0.02173550655091635</v>
       </c>
       <c r="Q2">
-        <v>177.4739962984272</v>
+        <v>12.15634045975867</v>
       </c>
       <c r="R2">
-        <v>177.4739962984272</v>
+        <v>109.407064137828</v>
       </c>
       <c r="S2">
-        <v>0.1994107787192953</v>
+        <v>0.01196507858750683</v>
       </c>
       <c r="T2">
-        <v>0.1994107787192953</v>
+        <v>0.01196507858750683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.71953218945127</v>
+        <v>10.105724</v>
       </c>
       <c r="H3">
-        <v>8.71953218945127</v>
+        <v>30.317172</v>
       </c>
       <c r="I3">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="J3">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.0045739603128</v>
+        <v>20.52978033333333</v>
       </c>
       <c r="N3">
-        <v>33.0045739603128</v>
+        <v>61.589341</v>
       </c>
       <c r="O3">
-        <v>0.6185474984923124</v>
+        <v>0.3709527941045833</v>
       </c>
       <c r="P3">
-        <v>0.6185474984923124</v>
+        <v>0.3709527941045833</v>
       </c>
       <c r="Q3">
-        <v>287.7844450460726</v>
+        <v>207.4682938292947</v>
       </c>
       <c r="R3">
-        <v>287.7844450460726</v>
+        <v>1867.214644463652</v>
       </c>
       <c r="S3">
-        <v>0.3233562183016338</v>
+        <v>0.2042040898986758</v>
       </c>
       <c r="T3">
-        <v>0.3233562183016338</v>
+        <v>0.2042040898986758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.90823209944779</v>
+        <v>10.105724</v>
       </c>
       <c r="H4">
-        <v>4.90823209944779</v>
+        <v>30.317172</v>
       </c>
       <c r="I4">
-        <v>0.2942659880783723</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="J4">
-        <v>0.2942659880783723</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.3536144419688</v>
+        <v>33.61068033333333</v>
       </c>
       <c r="N4">
-        <v>20.3536144419688</v>
+        <v>100.832041</v>
       </c>
       <c r="O4">
-        <v>0.3814525015076876</v>
+        <v>0.6073116993445002</v>
       </c>
       <c r="P4">
-        <v>0.3814525015076876</v>
+        <v>0.6073116993445002</v>
       </c>
       <c r="Q4">
-        <v>99.90026374385539</v>
+        <v>339.6602589008947</v>
       </c>
       <c r="R4">
-        <v>99.90026374385539</v>
+        <v>3056.942330108052</v>
       </c>
       <c r="S4">
-        <v>0.1122484972611265</v>
+        <v>0.3343162117131755</v>
       </c>
       <c r="T4">
-        <v>0.1122484972611265</v>
+        <v>0.3343162117131755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.90823209944779</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H5">
-        <v>4.90823209944779</v>
+        <v>15.028134</v>
       </c>
       <c r="I5">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884925</v>
       </c>
       <c r="J5">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884924</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>33.0045739603128</v>
+        <v>1.202916333333333</v>
       </c>
       <c r="N5">
-        <v>33.0045739603128</v>
+        <v>3.608749</v>
       </c>
       <c r="O5">
-        <v>0.6185474984923124</v>
+        <v>0.02173550655091635</v>
       </c>
       <c r="P5">
-        <v>0.6185474984923124</v>
+        <v>0.02173550655091635</v>
       </c>
       <c r="Q5">
-        <v>161.9941093406059</v>
+        <v>6.025862616040668</v>
       </c>
       <c r="R5">
-        <v>161.9941093406059</v>
+        <v>54.23276354436601</v>
       </c>
       <c r="S5">
-        <v>0.1820174908172458</v>
+        <v>0.005931054662142742</v>
       </c>
       <c r="T5">
-        <v>0.1820174908172458</v>
+        <v>0.005931054662142741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.05181234685054</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H6">
-        <v>3.05181234685054</v>
+        <v>15.028134</v>
       </c>
       <c r="I6">
-        <v>0.1829670149006985</v>
+        <v>0.2728740021884925</v>
       </c>
       <c r="J6">
-        <v>0.1829670149006985</v>
+        <v>0.2728740021884924</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.3536144419688</v>
+        <v>20.52978033333333</v>
       </c>
       <c r="N6">
-        <v>20.3536144419688</v>
+        <v>61.589341</v>
       </c>
       <c r="O6">
-        <v>0.3814525015076876</v>
+        <v>0.3709527941045833</v>
       </c>
       <c r="P6">
-        <v>0.3814525015076876</v>
+        <v>0.3709527941045833</v>
       </c>
       <c r="Q6">
-        <v>62.11541185703584</v>
+        <v>102.8414299466327</v>
       </c>
       <c r="R6">
-        <v>62.11541185703584</v>
+        <v>925.5728695196941</v>
       </c>
       <c r="S6">
-        <v>0.0697932255272658</v>
+        <v>0.1012233735503215</v>
       </c>
       <c r="T6">
-        <v>0.0697932255272658</v>
+        <v>0.1012233735503215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.05181234685054</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H7">
-        <v>3.05181234685054</v>
+        <v>15.028134</v>
       </c>
       <c r="I7">
-        <v>0.1829670149006985</v>
+        <v>0.2728740021884925</v>
       </c>
       <c r="J7">
-        <v>0.1829670149006985</v>
+        <v>0.2728740021884924</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.0045739603128</v>
+        <v>33.61068033333333</v>
       </c>
       <c r="N7">
-        <v>33.0045739603128</v>
+        <v>100.832041</v>
       </c>
       <c r="O7">
-        <v>0.6185474984923124</v>
+        <v>0.6073116993445002</v>
       </c>
       <c r="P7">
-        <v>0.6185474984923124</v>
+        <v>0.6073116993445002</v>
       </c>
       <c r="Q7">
-        <v>100.7237663146244</v>
+        <v>168.3686026268327</v>
       </c>
       <c r="R7">
-        <v>100.7237663146244</v>
+        <v>1515.317423641494</v>
       </c>
       <c r="S7">
-        <v>0.1131737893734327</v>
+        <v>0.1657195739760283</v>
       </c>
       <c r="T7">
-        <v>0.1131737893734327</v>
+        <v>0.1657195739760282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.242740666666667</v>
+      </c>
+      <c r="H8">
+        <v>9.728222000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1766406176121494</v>
+      </c>
+      <c r="J8">
+        <v>0.1766406176121493</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.202916333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.608749</v>
+      </c>
+      <c r="O8">
+        <v>0.02173550655091635</v>
+      </c>
+      <c r="P8">
+        <v>0.02173550655091635</v>
+      </c>
+      <c r="Q8">
+        <v>3.900745712697556</v>
+      </c>
+      <c r="R8">
+        <v>35.106711414278</v>
+      </c>
+      <c r="S8">
+        <v>0.003839373301266783</v>
+      </c>
+      <c r="T8">
+        <v>0.003839373301266782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.242740666666667</v>
+      </c>
+      <c r="H9">
+        <v>9.728222000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1766406176121494</v>
+      </c>
+      <c r="J9">
+        <v>0.1766406176121493</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>20.52978033333333</v>
+      </c>
+      <c r="N9">
+        <v>61.589341</v>
+      </c>
+      <c r="O9">
+        <v>0.3709527941045833</v>
+      </c>
+      <c r="P9">
+        <v>0.3709527941045833</v>
+      </c>
+      <c r="Q9">
+        <v>66.57275356463356</v>
+      </c>
+      <c r="R9">
+        <v>599.1547820817021</v>
+      </c>
+      <c r="S9">
+        <v>0.06552533065558608</v>
+      </c>
+      <c r="T9">
+        <v>0.06552533065558606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.242740666666667</v>
+      </c>
+      <c r="H10">
+        <v>9.728222000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1766406176121494</v>
+      </c>
+      <c r="J10">
+        <v>0.1766406176121493</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>33.61068033333333</v>
+      </c>
+      <c r="N10">
+        <v>100.832041</v>
+      </c>
+      <c r="O10">
+        <v>0.6073116993445002</v>
+      </c>
+      <c r="P10">
+        <v>0.6073116993445002</v>
+      </c>
+      <c r="Q10">
+        <v>108.9907199512336</v>
+      </c>
+      <c r="R10">
+        <v>980.9164795611021</v>
+      </c>
+      <c r="S10">
+        <v>0.1072759136552965</v>
+      </c>
+      <c r="T10">
+        <v>0.1072759136552965</v>
       </c>
     </row>
   </sheetData>
